--- a/Data/FamilyRoutinesModule.xlsx
+++ b/Data/FamilyRoutinesModule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055D3819-B0E6-8B43-874B-6DF6ED7185EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFDC422-4EA4-824E-B149-1DE0DEE1D3E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36380" yWindow="4240" windowWidth="27640" windowHeight="15920" xr2:uid="{821190FE-B7E7-B94C-A071-93AC53FF8249}"/>
+    <workbookView xWindow="45000" yWindow="-3540" windowWidth="27640" windowHeight="15920" xr2:uid="{821190FE-B7E7-B94C-A071-93AC53FF8249}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="23">
   <si>
     <t>Question</t>
   </si>
@@ -132,6 +132,9 @@
   <si>
     <t xml:space="preserve">•Almost Every Day	                                                                                                          •3-5 Times a Week                                                     •1-2 Times a Week                                                  •Almost Never
 •N/A                                                                                   </t>
+  </si>
+  <si>
+    <t>25, 45, 55</t>
   </si>
 </sst>
 </file>
@@ -551,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2B0AE4-C1D7-7743-A088-01C38448C778}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -594,8 +597,8 @@
       <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4">
-        <v>25</v>
+      <c r="E2" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="105" x14ac:dyDescent="0.2">
@@ -611,8 +614,8 @@
       <c r="D3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4">
-        <v>25</v>
+      <c r="E3" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="105" x14ac:dyDescent="0.2">
@@ -628,8 +631,8 @@
       <c r="D4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4">
-        <v>25</v>
+      <c r="E4" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="102" x14ac:dyDescent="0.2">
@@ -645,8 +648,8 @@
       <c r="D5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="4">
-        <v>25</v>
+      <c r="E5" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="102" x14ac:dyDescent="0.2">
@@ -662,8 +665,8 @@
       <c r="D6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="4">
-        <v>25</v>
+      <c r="E6" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="120" x14ac:dyDescent="0.2">
@@ -679,8 +682,8 @@
       <c r="D7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="4">
-        <v>25</v>
+      <c r="E7" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="120" x14ac:dyDescent="0.2">
@@ -696,8 +699,8 @@
       <c r="D8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="4">
-        <v>25</v>
+      <c r="E8" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="120" x14ac:dyDescent="0.2">
@@ -713,8 +716,8 @@
       <c r="D9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="4">
-        <v>25</v>
+      <c r="E9" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="105" x14ac:dyDescent="0.2">
@@ -730,8 +733,8 @@
       <c r="D10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="4">
-        <v>25</v>
+      <c r="E10" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="105" x14ac:dyDescent="0.2">
@@ -747,8 +750,8 @@
       <c r="D11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="4">
-        <v>25</v>
+      <c r="E11" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="96" x14ac:dyDescent="0.2">
@@ -764,8 +767,8 @@
       <c r="D12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="4">
-        <v>25</v>
+      <c r="E12" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Data/FamilyRoutinesModule.xlsx
+++ b/Data/FamilyRoutinesModule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFDC422-4EA4-824E-B149-1DE0DEE1D3E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97BF1019-081B-5348-9D78-A4B5F4A395B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45000" yWindow="-3540" windowWidth="27640" windowHeight="15920" xr2:uid="{821190FE-B7E7-B94C-A071-93AC53FF8249}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="16300" windowHeight="16080" xr2:uid="{821190FE-B7E7-B94C-A071-93AC53FF8249}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="27">
   <si>
     <t>Question</t>
   </si>
@@ -134,7 +134,20 @@
 •N/A                                                                                   </t>
   </si>
   <si>
-    <t>25, 45, 55</t>
+    <t>25, 45, 55, 73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How has quality time with your child(ren) been affected by the pandemic? </t>
+  </si>
+  <si>
+    <t>Open Ended</t>
+  </si>
+  <si>
+    <t>Some families say their daily routines have been disrupted by the pandemic. 
+Has this been true for your family and, if so, what are some of the reasons that this has happened?</t>
+  </si>
+  <si>
+    <t>Open ended</t>
   </si>
 </sst>
 </file>
@@ -211,7 +224,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -235,6 +248,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -552,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2B0AE4-C1D7-7743-A088-01C38448C778}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -771,6 +787,28 @@
         <v>22</v>
       </c>
     </row>
+    <row r="13" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="3">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{49C6C5DB-65C7-9B49-A2AC-5701D8395B8E}"/>

--- a/Data/FamilyRoutinesModule.xlsx
+++ b/Data/FamilyRoutinesModule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97BF1019-081B-5348-9D78-A4B5F4A395B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{929580BD-9083-7B4B-B489-6C1979BA5876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="16300" windowHeight="16080" xr2:uid="{821190FE-B7E7-B94C-A071-93AC53FF8249}"/>
+    <workbookView xWindow="12500" yWindow="500" windowWidth="16300" windowHeight="16080" xr2:uid="{821190FE-B7E7-B94C-A071-93AC53FF8249}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="28">
   <si>
     <t>Question</t>
   </si>
@@ -134,9 +134,6 @@
 •N/A                                                                                   </t>
   </si>
   <si>
-    <t>25, 45, 55, 73</t>
-  </si>
-  <si>
     <t xml:space="preserve">How has quality time with your child(ren) been affected by the pandemic? </t>
   </si>
   <si>
@@ -148,13 +145,19 @@
   </si>
   <si>
     <t>Open ended</t>
+  </si>
+  <si>
+    <t>25, 45, 55, 73, 81</t>
+  </si>
+  <si>
+    <t>73, 81</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -198,6 +201,12 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -570,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2B0AE4-C1D7-7743-A088-01C38448C778}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -614,7 +623,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="105" x14ac:dyDescent="0.2">
@@ -631,7 +640,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="105" x14ac:dyDescent="0.2">
@@ -648,7 +657,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="102" x14ac:dyDescent="0.2">
@@ -665,7 +674,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="102" x14ac:dyDescent="0.2">
@@ -682,7 +691,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="120" x14ac:dyDescent="0.2">
@@ -699,7 +708,7 @@
         <v>8</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="120" x14ac:dyDescent="0.2">
@@ -716,7 +725,7 @@
         <v>8</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="120" x14ac:dyDescent="0.2">
@@ -733,7 +742,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="105" x14ac:dyDescent="0.2">
@@ -750,7 +759,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="105" x14ac:dyDescent="0.2">
@@ -767,7 +776,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="96" x14ac:dyDescent="0.2">
@@ -784,32 +793,33 @@
         <v>8</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="3">
-        <v>73</v>
+      <c r="E13" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="3">
-        <v>73</v>
+      <c r="E14" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{49C6C5DB-65C7-9B49-A2AC-5701D8395B8E}"/>
     <hyperlink ref="D4" r:id="rId2" xr:uid="{4ED02B86-8C71-2F46-AA15-0DB89369FF6C}"/>

--- a/Data/FamilyRoutinesModule.xlsx
+++ b/Data/FamilyRoutinesModule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{929580BD-9083-7B4B-B489-6C1979BA5876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8BD7A69-A6D3-8B48-82CE-1E340B3961B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12500" yWindow="500" windowWidth="16300" windowHeight="16080" xr2:uid="{821190FE-B7E7-B94C-A071-93AC53FF8249}"/>
+    <workbookView xWindow="80" yWindow="500" windowWidth="16300" windowHeight="16080" xr2:uid="{821190FE-B7E7-B94C-A071-93AC53FF8249}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="30">
   <si>
     <t>Question</t>
   </si>
@@ -147,10 +147,26 @@
     <t>Open ended</t>
   </si>
   <si>
-    <t>25, 45, 55, 73, 81</t>
-  </si>
-  <si>
-    <t>73, 81</t>
+    <t>25, 45, 55, 73, 81, 89</t>
+  </si>
+  <si>
+    <t>73, 81, 89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How often do you engage in the following activities as a parent/caregiver?
+• I create activities that build on my child(ren)'s interests 
+• I read to my child(ren) 
+• I sing to my child(ren)  
+• I tell stories to my child(ren)  
+• I encourage positive behavior  
+• I prevent challenging behaviors  
+• I engage in a back-and-forth exchange with my child(ren)'s verbal and nonverbal communication  </t>
+  </si>
+  <si>
+    <t>• Never
+• Rarely
+• Often
+• All the time</t>
   </si>
 </sst>
 </file>
@@ -577,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2B0AE4-C1D7-7743-A088-01C38448C778}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -796,25 +812,38 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:5" ht="225" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="119" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+    <row r="15" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>27</v>
       </c>
     </row>

--- a/Data/FamilyRoutinesModule.xlsx
+++ b/Data/FamilyRoutinesModule.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25027"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,17 +15,26 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="31">
   <si>
     <t>Question</t>
   </si>
@@ -36,10 +45,66 @@
     <t>Source</t>
   </si>
   <si>
-    <t>Occurrence</t>
+    <t>Source Link</t>
+  </si>
+  <si>
+    <t>Dates Used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Was this a routine PRIOR TO the Coronavirus (COVID-19) Pandemic? 
+Working parent(s) had a regular play time with the children after work. </t>
+  </si>
+  <si>
+    <t>•Almost Every Day	                                                                                                          •3-5 Times a Week                                                     •1-2 Times a Week                                                  •Almost Never                                                                                    •N/A</t>
   </si>
   <si>
     <t>RAPID modified Questionnaire of Unpredictability in Childhood (QUIC) developed by Laura Glynn at Chapman Univ and Elysia Davis at Univ of Denver</t>
+  </si>
+  <si>
+    <t>https://contecenter.uci.edu/wp-content/uploads/2019/01/QUIC-Neuropsychopharmacology-2018.pdf</t>
+  </si>
+  <si>
+    <t>09/21/2020-09/24/2020 02/17/2021-02/19/2021 04/28/2021-05/01/2021 09/01/2021-09/03/2021 10/27/2021-11/02/2021 01/11/2022-01/18/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Was this a routine PRIOR TO the Coronavirus (COVID-19) Pandemic? 
+Children did the same things each morning as soon as they woke up. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Was this a routine PRIOR TO the Coronavirus (COVID-19) Pandemic? 
+Family had certain 'family time' each week when they did things together at home. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Was this a routine PRIOR TO the Coronavirus (COVID-19) Pandemic? 
+Children went to bed at the same time almost every night. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Was this a routine PRIOR TO the Coronavirus (COVID-19) Pandemic? 
+Whole family ate dinner together almost every night. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•Almost Every Day	                                                                                                          •3-5 Times a Week                                                     •1-2 Times a Week                                                  •Almost Never
+•N/A                                                                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has this been a routine SINCE THE beginning of the Coronavirus (COVID-19) Pandemic? 
+Working parent(s) had a regular play time with the children after work. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has this been a routine SINCE THE beginning of the Coronavirus (COVID-19) Pandemic? 
+Children did the same things each morning as soon as they woke up. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has this been a routine SINCE THE beginning of the Coronavirus (COVID-19) Pandemic? 
+Family had certain 'family time' each week when they did things together at home. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has this been a routine SINCE THE beginning of the Coronavirus (COVID-19) Pandemic? 
+Children went to bed at the same time almost every night. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has this been a routine SINCE THE beginning of the Coronavirus (COVID-19) Pandemic? 
+Whole family ate dinner together almost every night. </t>
   </si>
   <si>
     <r>
@@ -75,82 +140,10 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">•Has increased                                                   •Has stayed about the same                                               •Has decreased                                                </t>
+  </si>
+  <si>
     <t>Developed by RAPID Team</t>
-  </si>
-  <si>
-    <t>Source Link</t>
-  </si>
-  <si>
-    <t>https://contecenter.uci.edu/wp-content/uploads/2019/01/QUIC-Neuropsychopharmacology-2018.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Was this a routine PRIOR TO the Coronavirus (COVID-19) Pandemic? 
-Working parent(s) had a regular play time with the children after work. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Was this a routine PRIOR TO the Coronavirus (COVID-19) Pandemic? 
-Children did the same things each morning as soon as they woke up. </t>
-  </si>
-  <si>
-    <t>•Almost Every Day	                                                                                                          •3-5 Times a Week                                                     •1-2 Times a Week                                                  •Almost Never                                                                                    •N/A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">•Has increased                                                   •Has stayed about the same                                               •Has decreased                                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Has this been a routine SINCE THE beginning of the Coronavirus (COVID-19) Pandemic? 
-Whole family ate dinner together almost every night. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Has this been a routine SINCE THE beginning of the Coronavirus (COVID-19) Pandemic? 
-Children went to bed at the same time almost every night. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Has this been a routine SINCE THE beginning of the Coronavirus (COVID-19) Pandemic? 
-Family had certain 'family time' each week when they did things together at home. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Has this been a routine SINCE THE beginning of the Coronavirus (COVID-19) Pandemic? 
-Children did the same things each morning as soon as they woke up. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Has this been a routine SINCE THE beginning of the Coronavirus (COVID-19) Pandemic? 
-Working parent(s) had a regular play time with the children after work. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Was this a routine PRIOR TO the Coronavirus (COVID-19) Pandemic? 
-Whole family ate dinner together almost every night. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Was this a routine PRIOR TO the Coronavirus (COVID-19) Pandemic? 
-Children went to bed at the same time almost every night. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Was this a routine PRIOR TO the Coronavirus (COVID-19) Pandemic? 
-Family had certain 'family time' each week when they did things together at home. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">•Almost Every Day	                                                                                                          •3-5 Times a Week                                                     •1-2 Times a Week                                                  •Almost Never
-•N/A                                                                                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">How has quality time with your child(ren) been affected by the pandemic? </t>
-  </si>
-  <si>
-    <t>Open Ended</t>
-  </si>
-  <si>
-    <t>Some families say their daily routines have been disrupted by the pandemic. 
-Has this been true for your family and, if so, what are some of the reasons that this has happened?</t>
-  </si>
-  <si>
-    <t>Open ended</t>
-  </si>
-  <si>
-    <t>25, 45, 55, 73, 81, 89</t>
-  </si>
-  <si>
-    <t>73, 81, 89</t>
   </si>
   <si>
     <t xml:space="preserve">How often do you engage in the following activities as a parent/caregiver?
@@ -168,12 +161,31 @@
 • Often
 • All the time</t>
   </si>
+  <si>
+    <t>01/11/2022-01/18/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How has quality time with your child(ren) been affected by the pandemic? </t>
+  </si>
+  <si>
+    <t>Open Ended</t>
+  </si>
+  <si>
+    <t>09/01/2021-09/03/2021 10/27/2021-11/02/2021 01/11/2022-01/18/2022</t>
+  </si>
+  <si>
+    <t>Some families say their daily routines have been disrupted by the pandemic. 
+Has this been true for your family and, if so, what are some of the reasons that this has happened?</t>
+  </si>
+  <si>
+    <t>Open ended</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -595,20 +607,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2B0AE4-C1D7-7743-A088-01C38448C778}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" style="2" customWidth="1"/>
-    <col min="3" max="4" width="24.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="27.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.375" style="2" customWidth="1"/>
+    <col min="3" max="4" width="24.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.625" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -619,232 +631,232 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="105" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="150">
       <c r="A2" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="105" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="150">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="150">
+      <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="105" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="150">
       <c r="A5" s="5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="150">
       <c r="A6" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="120" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="150">
       <c r="A7" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="120" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="150">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="150">
+      <c r="A9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="150">
+      <c r="A10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="150">
+      <c r="A11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="110.25">
+      <c r="A12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="120" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="105" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="105" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="96" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C12" s="6" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="225" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="213.75">
       <c r="A13" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="4">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="E13" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="63">
       <c r="A14" s="9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="E14" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="110.25">
       <c r="A15" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Data/FamilyRoutinesModule.xlsx
+++ b/Data/FamilyRoutinesModule.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mi/SWM/p6l4l556c/xqXEP+2VgpPw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mj+XOQuMMu59bt8Q5jGYXvD8GToqg=="/>
     </ext>
   </extLst>
 </workbook>
@@ -175,7 +175,7 @@
     <t xml:space="preserve">How has quality time with your child(ren) been affected by the pandemic? </t>
   </si>
   <si>
-    <t>Open ended</t>
+    <t>Open ended response</t>
   </si>
   <si>
     <t>09/01/2021-09/03/2021 10/27/2021-11/02/2021 01/11/2022-01/18/2022</t>
@@ -1066,7 +1066,7 @@
       <c r="A15" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="1"/>

--- a/Data/FamilyRoutinesModule.xlsx
+++ b/Data/FamilyRoutinesModule.xlsx
@@ -8,8 +8,8 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mj+XOQuMMu59bt8Q5jGYXvD8GToqg=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="mEH1BE59mWr0fuVbQVhi3x7evkcYSPc3tApnXbzSnAQ="/>
     </ext>
   </extLst>
 </workbook>
@@ -169,7 +169,7 @@
 • All the time</t>
   </si>
   <si>
-    <t>01/11/2022-01/18/2022 09/08/2022-09/15/2022 01/11/2023-01/18/2023</t>
+    <t>01/11/2022-01/18/2022 09/08/2022-09/15/2022 01/11/2023-01/18/2023 04/05/2023-04/13/2023 07/05/2023-07/12/2023</t>
   </si>
   <si>
     <t xml:space="preserve">How has quality time with your child(ren) been affected by the pandemic? </t>
@@ -189,7 +189,7 @@
 Working parent(s) had a regular play time with the children after work. </t>
   </si>
   <si>
-    <t>09/08/2022-09/15/2022 01/11/2023-01/18/2023</t>
+    <t>09/08/2022-09/15/2022 01/11/2023-01/18/2023 04/05/2023-04/13/2023 07/05/2023-07/12/2023</t>
   </si>
   <si>
     <t xml:space="preserve">Has this been a routine in the last month? 

--- a/Data/FamilyRoutinesModule.xlsx
+++ b/Data/FamilyRoutinesModule.xlsx
@@ -169,7 +169,7 @@
 • All the time</t>
   </si>
   <si>
-    <t>01/11/2022-01/18/2022 09/08/2022-09/15/2022 01/11/2023-01/18/2023 04/05/2023-04/13/2023 07/05/2023-07/12/2023</t>
+    <t>01/11/2022-01/18/2022 09/08/2022-09/15/2022 01/11/2023-01/18/2023 04/05/2023-04/13/2023 07/05/2023-07/12/2023 10/04/2023-10/11/2023</t>
   </si>
   <si>
     <t xml:space="preserve">How has quality time with your child(ren) been affected by the pandemic? </t>
@@ -189,7 +189,7 @@
 Working parent(s) had a regular play time with the children after work. </t>
   </si>
   <si>
-    <t>09/08/2022-09/15/2022 01/11/2023-01/18/2023 04/05/2023-04/13/2023 07/05/2023-07/12/2023</t>
+    <t>09/08/2022-09/15/2022 01/11/2023-01/18/2023 04/05/2023-04/13/2023 07/05/2023-07/12/2023 10/04/2023-10/11/2023</t>
   </si>
   <si>
     <t xml:space="preserve">Has this been a routine in the last month? 
